--- a/biology/Zoologie/Cnemaspis_nairi/Cnemaspis_nairi.xlsx
+++ b/biology/Zoologie/Cnemaspis_nairi/Cnemaspis_nairi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cnemaspis nairi est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cnemaspis nairi est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Kerala en Inde[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Kerala en Inde.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur du naturaliste S. Madhavan Nair[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur du naturaliste S. Madhavan Nair.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cnemaspis nairi peut atteindre une longueur du museau à l'évent de 40 mm. Il est gris avec des marques noires et blanches sur la face dorsale. Ventralement, il est brun grisâtre. La queue présente des anneaux alternés de noir et d'olive jaunâtre[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cnemaspis nairi peut atteindre une longueur du museau à l'évent de 40 mm. Il est gris avec des marques noires et blanches sur la face dorsale. Ventralement, il est brun grisâtre. La queue présente des anneaux alternés de noir et d'olive jaunâtre.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cnemaspis nairi est ovipare[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cnemaspis nairi est ovipare.
 </t>
         </is>
       </c>
@@ -635,9 +655,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'habitat préféré de cnemaspis nairi est constitué de forêts sempervirentes et de forêts semi-sempervirentes à des altitudes comprises entre 280 et 925 m[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'habitat préféré de cnemaspis nairi est constitué de forêts sempervirentes et de forêts semi-sempervirentes à des altitudes comprises entre 280 et 925 m.
 </t>
         </is>
       </c>
@@ -666,7 +688,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Inger, Marx &amp; Koshy, 1984 : An undescribed species of gekkonid lizard (Cnemaspis) from India with comments on the status of C. tropidogaster. Herpetologica, vol. 40, n. 2, p. 149-154.</t>
         </is>
